--- a/Test/NMP_test_df.xlsx
+++ b/Test/NMP_test_df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECB\ECB_NMP_DeepQNetworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECB\ECB_NMP_DeepQNetworks\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6800AE6-F750-4B05-A60E-F035512ECB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146C3065-7CE1-41BD-8ABA-E9EBCF6BCFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">Supplier </t>
   </si>
@@ -107,13 +107,22 @@
     <t>Prime Tower Rent</t>
   </si>
   <si>
-    <t>Prime Tower Utilities</t>
-  </si>
-  <si>
     <t>KPMG</t>
   </si>
   <si>
     <t>BNP Paribas</t>
+  </si>
+  <si>
+    <t>Main Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Building </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallileo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Tower </t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -300,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,7 +320,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -336,11 +344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -623,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,266 +672,152 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>46208</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>46223</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>300</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>300</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>46056</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>46115</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4">
         <v>37383940</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>545</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>500</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>45661</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>46023</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4">
         <v>647483902</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>5670</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>5370</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>46134</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>46142</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>1200030.45</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>1200030.45</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>44003</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>44197</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5">
         <v>210098</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>1200030.45</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>900000.45</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
